--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_protocol_tables_test_ni_protocol_tables_connection_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_protocol_tables_test_ni_protocol_tables_connection_logs.xlsx
@@ -510,8 +510,61 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:c9ed6958-daf1-4cf1-8bda-18da54dd7427"&gt;
-  &lt;data/&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:7a247e50-6bea-4a9f-aea2-11306f46386d"&gt;
+  &lt;data&gt;
+    &lt;network-instances&gt;
+      &lt;network-instance&gt;
+        &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+        &lt;config&gt;
+          &lt;name&gt;Prueba_LxVPN&lt;/name&gt;
+          &lt;type&gt;oc-ni-types:L3VRF&lt;/type&gt;
+        &lt;/config&gt;
+        &lt;interfaces&gt;
+          &lt;interface&gt;
+            &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+            &lt;config&gt;
+              &lt;id&gt;GigabitEthernet0/3/2&lt;/id&gt;
+              &lt;interface&gt;GigabitEthernet0/3/2&lt;/interface&gt;
+              &lt;subinterface&gt;0&lt;/subinterface&gt;
+            &lt;/config&gt;
+          &lt;/interface&gt;
+        &lt;/interfaces&gt;
+        &lt;protocols&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+            &lt;name&gt;22&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:OSPF&lt;/identifier&gt;
+              &lt;name&gt;22&lt;/name&gt;
+            &lt;/config&gt;
+            &lt;ospfv2&gt;
+              &lt;global&gt;
+                &lt;config&gt;
+                  &lt;router-id&gt;172.16.1.3&lt;/router-id&gt;
+                &lt;/config&gt;
+              &lt;/global&gt;
+            &lt;/ospfv2&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:STATIC&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+          &lt;protocol&gt;
+            &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+            &lt;name&gt;default&lt;/name&gt;
+            &lt;config&gt;
+              &lt;identifier&gt;oc-pol-types:DIRECTLY_CONNECTED&lt;/identifier&gt;
+              &lt;name&gt;default&lt;/name&gt;
+            &lt;/config&gt;
+          &lt;/protocol&gt;
+        &lt;/protocols&gt;
+      &lt;/network-instance&gt;
+    &lt;/network-instances&gt;
+  &lt;/data&gt;
 &lt;/rpc-reply&gt;
 </t>
         </is>
